--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_6_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_6_1.xlsx
@@ -478,435 +478,435 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_0</t>
+          <t>model_6_1_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.05024796887061866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.4460531622001842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8499520285849262</v>
+        <v>-3.685831778419148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.7497896818492398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625347137451172</v>
+        <v>1.051095724105835</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.425705909729004</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03893651068210602</v>
+        <v>1.069767832756042</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.787616610527039</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_22</t>
+          <t>model_6_1_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.06636021522386093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.4947018566597037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8499520285849262</v>
+        <v>-3.487343364435751</v>
       </c>
       <c r="E3" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.7712068475366818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625347137451172</v>
+        <v>1.03326416015625</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.507312774658203</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03893651068210602</v>
+        <v>1.024453282356262</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.809496760368347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_21</t>
+          <t>model_6_1_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.07368823630507115</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.5046170790658033</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8499520285849262</v>
+        <v>-3.429284598149728</v>
       </c>
       <c r="E4" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.7737205692288598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625347137451172</v>
+        <v>1.025154232978821</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.523944854736328</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03893651068210602</v>
+        <v>1.0111985206604</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.812064647674561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_20</t>
+          <t>model_6_1_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.0764462544829333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.4239671110629386</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8499520285849262</v>
+        <v>-3.432375602940859</v>
       </c>
       <c r="E5" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.7039375129460101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1625347137451172</v>
+        <v>1.022101879119873</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.388657331466675</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03893651068210602</v>
+        <v>1.011904120445251</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.74077320098877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_19</t>
+          <t>model_6_1_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.171376367955839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3160953629476637</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.716821805375643</v>
       </c>
       <c r="E6" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5349189356743507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9170421957969666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.207705974578857</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8485444188117981</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.568100810050964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_18</t>
+          <t>model_6_1_17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1801254719301683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3237610291215822</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.696788112347436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5394795522406246</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9073595404624939</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.220564842224121</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.843970775604248</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.572759866714478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_17</t>
+          <t>model_6_1_22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1805563294075355</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3300861536875999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.639245461350396</v>
       </c>
       <c r="E8" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5389230586495828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9068827033042908</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.231175422668457</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8308337926864624</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.572191596031189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_16</t>
+          <t>model_6_1_23</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1809502212297278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3284735625829664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.639383797789864</v>
       </c>
       <c r="E9" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5375364781833325</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9064467549324036</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.228470087051392</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8308653831481934</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.570774912834167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_15</t>
+          <t>model_6_1_24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1811612888872539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3277082246942489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.638649588768884</v>
       </c>
       <c r="E10" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5367966598798979</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.906213104724884</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.227186441421509</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.830697774887085</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.570019245147705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_14</t>
+          <t>model_6_1_21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1820210889903224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3237083813769415</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.641832132974327</v>
       </c>
       <c r="E11" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5336530555740178</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9052616357803345</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.220476627349854</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.831424355506897</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.566807627677917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_13</t>
+          <t>model_6_1_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1826904300514818</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3211293366246437</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.638639188123275</v>
       </c>
       <c r="E12" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5310748509320187</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9045209288597107</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.216150283813477</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8306953907012939</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.564173579216003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_23</t>
+          <t>model_6_1_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1829352961531033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3078440340895363</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.704351071855781</v>
       </c>
       <c r="E13" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5264346869532492</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9042497873306274</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.193864822387695</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8456974029541016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.559433102607727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_12</t>
+          <t>model_6_1_18</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1830247481214229</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3162498167754899</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.66372317870195</v>
       </c>
       <c r="E14" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5294730132158547</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9041508436203003</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.207965135574341</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8364220857620239</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.56253719329834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_10</t>
+          <t>model_6_1_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1831763393842442</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3066586574536934</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.696943288812197</v>
       </c>
       <c r="E15" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5246267089414367</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9039831161499023</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.191876411437988</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8440061807632446</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.557586073875427</v>
       </c>
     </row>
     <row r="16">
@@ -916,338 +916,338 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1836226319111175</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.2932642844674602</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.73506402925061</v>
       </c>
       <c r="E16" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5169894481319772</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9034891128540039</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.169407844543457</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8527091145515442</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.54978358745575</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_8</t>
+          <t>model_6_1_19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1837329884844883</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3148548572734218</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.653834964158423</v>
       </c>
       <c r="E17" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5272134243369704</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9033670425415039</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.205625295639038</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8341646194458008</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.560228586196899</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_7</t>
+          <t>model_6_1_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1839558144942786</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3112418940612118</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.658407115147372</v>
       </c>
       <c r="E18" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5245565762630227</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9031205177307129</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.199564695358276</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8352084159851074</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.557514429092407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_6</t>
+          <t>model_6_1_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1845399773884882</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.2896587808053863</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.697964365251934</v>
       </c>
       <c r="E19" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5099551818482313</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9024739265441895</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.163359642028809</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8442392945289612</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.542597413063049</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_5</t>
+          <t>model_6_1_15</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1846352252023525</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3073394395036146</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.665897531027434</v>
       </c>
       <c r="E20" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5219510050697309</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9023685455322266</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.193018436431885</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8369184732437134</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.554852485656738</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_4</t>
+          <t>model_6_1_11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1853446293840699</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.2964781794211391</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.696097202210205</v>
       </c>
       <c r="E21" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5156852033039667</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9015833735466003</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.174798727035522</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8438130021095276</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.54845130443573</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_3</t>
+          <t>model_6_1_14</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1853898908969185</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.3035967241769189</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.669166528627525</v>
       </c>
       <c r="E22" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5190416293286011</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.9015334248542786</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.186739921569824</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.837664783000946</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.551880121231079</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_2</t>
+          <t>model_6_1_10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1875309698781547</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.2859181276612488</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.691300693772672</v>
       </c>
       <c r="E23" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.5060036862849473</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8991637825965881</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.157084465026855</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8427180051803589</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.538560271263123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_1</t>
+          <t>model_6_1_7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.188062533235088</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.278826496334124</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.619082946053535</v>
       </c>
       <c r="E24" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.4922435605820743</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.898575484752655</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.145188808441162</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8262307643890381</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.524502754211426</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_11</t>
+          <t>model_6_1_6</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.1893593178598063</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8283386529329604</v>
+        <v>-0.2712199711673999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8499520285849262</v>
+        <v>-2.584673131951025</v>
       </c>
       <c r="E25" t="n">
-        <v>0.858454424589443</v>
+        <v>-0.4820139109860273</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8971403837203979</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2363929152488708</v>
+        <v>2.132429122924805</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.8183751106262207</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1434722691774368</v>
+        <v>1.514051914215088</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_1_24</t>
+          <t>model_6_1_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.312700901608728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8283386529329604</v>
+        <v>0.3658468963373929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8499520285849262</v>
+        <v>-0.6676155347333375</v>
       </c>
       <c r="E26" t="n">
-        <v>0.858454424589443</v>
+        <v>0.273376440866874</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7606375813484192</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2363929152488708</v>
+        <v>1.063770771026611</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03893651068210602</v>
+        <v>0.380713939666748</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1434722691774368</v>
+        <v>0.7423316836357117</v>
       </c>
     </row>
   </sheetData>
